--- a/Documentation/TimeSheets/week5/Huy Nguyen Week 5 Timesheet .xlsx
+++ b/Documentation/TimeSheets/week5/Huy Nguyen Week 5 Timesheet .xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Adelaide\2017-S2-SEP-PG29\Documentation\TimeSheets\week5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3. Adelaide - Source Code\2017-S2-SEP-PG29\Documentation\TimeSheets\week5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -85,9 +85,6 @@
     <t>03:30PM</t>
   </si>
   <si>
-    <t>Name: Xiaoshan Chen</t>
-  </si>
-  <si>
     <t>Week 5 Time Sheet</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>08:00PM</t>
+  </si>
+  <si>
+    <t>Name: Huy Nguyen Phan</t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,7 @@
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -701,7 +701,7 @@
   <sheetData>
     <row r="1" spans="2:8" ht="34.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -712,10 +712,10 @@
     </row>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="10"/>
     </row>
@@ -808,7 +808,7 @@
     </row>
     <row r="9" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>42969</v>
@@ -817,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5">
         <v>4</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="10" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4">
         <v>42971</v>
@@ -834,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="5">
         <v>3</v>
@@ -842,16 +842,16 @@
     </row>
     <row r="11" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="F11" s="5">
         <v>2.5</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="12" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>

--- a/Documentation/TimeSheets/week5/Huy Nguyen Week 5 Timesheet .xlsx
+++ b/Documentation/TimeSheets/week5/Huy Nguyen Week 5 Timesheet .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="576" yWindow="456" windowWidth="20736" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="576" yWindow="456" windowWidth="20736" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Time Sheet" sheetId="1" r:id="rId1"/>
@@ -97,9 +97,6 @@
     <t>04:00AM</t>
   </si>
   <si>
-    <t>SRS section 4 revise revised</t>
-  </si>
-  <si>
     <t>8/26/2017</t>
   </si>
   <si>
@@ -115,13 +112,16 @@
     <t>8/27/2017</t>
   </si>
   <si>
-    <t>Lejos &amp; Java FX seft study</t>
-  </si>
-  <si>
     <t>08:00PM</t>
   </si>
   <si>
     <t>Name: Huy Nguyen Phan</t>
+  </si>
+  <si>
+    <t>SRS section 4  revised</t>
+  </si>
+  <si>
+    <t>Lejos &amp; Java FX self-study</t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,7 @@
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -712,7 +712,7 @@
     </row>
     <row r="2" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>16</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="9" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="4">
         <v>42969</v>
@@ -817,7 +817,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F9" s="5">
         <v>4</v>
@@ -842,16 +842,16 @@
     </row>
     <row r="11" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="E11" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="F11" s="5">
         <v>2.5</v>
@@ -859,10 +859,10 @@
     </row>
     <row r="12" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
